--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKLM050-001 - Klaim Transaksi - Register Klaim - Klaim Pasca Kerja.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKLM050-001 - Klaim Transaksi - Register Klaim - Klaim Pasca Kerja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B08CAB-188E-46A6-9743-884EAA85355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E29EE6-91A6-4DA8-8C0B-03ADD8EA82E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>run</t>
+  </si>
+  <si>
+    <t>0000000045</t>
   </si>
 </sst>
 </file>
@@ -558,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,9 +741,6 @@
       <c r="X2" s="7"/>
     </row>
     <row r="3" spans="1:33" ht="75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
@@ -785,13 +785,46 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="J4" s="5"/>
+    <row r="4" spans="1:33" ht="75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4">
+        <v>36543</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="6"/>
